--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -825,10 +837,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -872,28 +884,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -918,28 +930,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -998,10 +1010,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1045,28 +1057,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1091,28 +1103,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1356,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1391,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1449,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1690,10 +1702,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1737,28 +1749,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1783,28 +1795,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2414,10 +2426,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2461,28 +2473,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2507,28 +2519,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2587,10 +2599,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2634,28 +2646,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2680,28 +2692,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2760,10 +2772,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2807,28 +2819,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2853,28 +2865,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3339,10 +3351,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3386,28 +3398,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3432,28 +3444,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3524,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3617,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3685,10 +3697,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3732,28 +3744,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3778,28 +3790,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3858,10 +3870,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3905,28 +3917,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3951,28 +3963,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4031,10 +4043,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4078,28 +4090,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4124,28 +4136,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4204,10 +4216,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4251,28 +4263,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4297,28 +4309,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4377,10 +4389,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4424,28 +4436,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4470,28 +4482,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4550,10 +4562,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4597,28 +4609,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4643,28 +4655,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4723,10 +4735,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4770,28 +4782,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4816,28 +4828,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4896,10 +4908,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4943,28 +4955,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4989,28 +5001,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5069,10 +5081,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5116,28 +5128,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5162,28 +5174,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5242,10 +5254,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5289,28 +5301,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5335,28 +5347,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5415,10 +5427,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5462,28 +5474,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5508,28 +5520,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5588,10 +5600,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5635,28 +5647,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5681,28 +5693,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5761,10 +5773,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5808,28 +5820,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5854,28 +5866,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5934,10 +5946,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5981,28 +5993,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6027,28 +6039,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6107,10 +6119,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6154,28 +6166,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6200,28 +6212,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6280,10 +6292,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6327,28 +6339,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6373,28 +6385,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6453,10 +6465,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6500,28 +6512,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6546,28 +6558,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6638,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6673,28 +6685,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6731,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6799,10 +6811,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6846,28 +6858,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6892,28 +6904,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6972,10 +6984,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7019,28 +7031,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7065,28 +7077,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7145,10 +7157,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7192,28 +7204,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7238,28 +7250,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7318,10 +7330,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7365,28 +7377,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7411,28 +7423,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7491,10 +7503,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7538,28 +7550,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7584,28 +7596,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7676,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7723,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7769,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7837,10 +7849,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7884,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7930,28 +7942,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8010,10 +8022,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8057,28 +8069,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8103,28 +8115,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8183,10 +8195,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8230,28 +8242,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8276,28 +8288,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8356,10 +8368,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8403,28 +8415,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8449,28 +8461,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8529,10 +8541,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8576,28 +8588,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8622,28 +8634,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8702,10 +8714,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8749,28 +8761,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8795,28 +8807,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8875,10 +8887,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8922,28 +8934,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8968,28 +8980,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9048,10 +9060,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9095,28 +9107,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9141,28 +9153,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9221,10 +9233,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9268,28 +9280,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9314,28 +9326,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9394,10 +9406,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9441,28 +9453,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9487,28 +9499,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9567,10 +9579,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9614,28 +9626,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9660,28 +9672,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9740,10 +9752,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9787,28 +9799,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9833,28 +9845,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9913,10 +9925,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9960,28 +9972,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10006,28 +10018,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10086,10 +10098,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10133,28 +10145,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10179,28 +10191,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10259,10 +10271,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
